--- a/biology/Médecine/1617_en_santé_et_médecine/1617_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1617_en_santé_et_médecine/1617_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1617_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1617_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1617 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1617_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1617_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le peintre Pieter van Mierevelt (en) (1596-1623) achève à Delft sa Leçon d'anatomie du docteur Willem van der Meer[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le peintre Pieter van Mierevelt (en) (1596-1623) achève à Delft sa Leçon d'anatomie du docteur Willem van der Meer.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1617_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1617_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Novembre : début de la construction, à Paris, rue de la Bûcherie, contre le jardin botanique de la Faculté, d'un amphithéâtre d'anatomie qu'on appellera théâtre Riolan, du nom du médecin qui l'inaugurera en 1620[2].
-Les pharmaciens de Londres fondent la Worshipful Society of Apothecaries (en), quittant la guilde des épiciers (Worshipful Company of Grocers (en)) à laquelle ils appartenaient depuis sa fondation, en 1373 [3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Novembre : début de la construction, à Paris, rue de la Bûcherie, contre le jardin botanique de la Faculté, d'un amphithéâtre d'anatomie qu'on appellera théâtre Riolan, du nom du médecin qui l'inaugurera en 1620.
+Les pharmaciens de Londres fondent la Worshipful Society of Apothecaries (en), quittant la guilde des épiciers (Worshipful Company of Grocers (en)) à laquelle ils appartenaient depuis sa fondation, en 1373 .</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1617_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1617_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +588,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Parution du deuxième livre des Observations de Louise Bourgeois (1553-1636), sage-femme de Marie de Médicis[4].
-Parution des Voyages en Asie, Afrique, Indes orientales et occidentales de Jean Mocquet (1575-c.1617), apothicaire de Louis XIII[5],[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parution du deuxième livre des Observations de Louise Bourgeois (1553-1636), sage-femme de Marie de Médicis.
+Parution des Voyages en Asie, Afrique, Indes orientales et occidentales de Jean Mocquet (1575-c.1617), apothicaire de Louis XIII,.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1617_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1617_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,12 +621,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6 février : Prospero Alpini (né en 1553), médecin et botaniste italien[7], auteur du De plantis Ægypti.
-Perrin Borne (né à une date inconnue), chirurgien à Montbéliard, « décapité pour cause de sortilège[8] ».
-Pieter Pauw (né en 1564), médecin et botaniste néerlandais[9].
-Vers 1617 : Jean Mocquet (né en 1575), apothicaire du roi Louis XIII[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6 février : Prospero Alpini (né en 1553), médecin et botaniste italien, auteur du De plantis Ægypti.
+Perrin Borne (né à une date inconnue), chirurgien à Montbéliard, « décapité pour cause de sortilège ».
+Pieter Pauw (né en 1564), médecin et botaniste néerlandais.
+Vers 1617 : Jean Mocquet (né en 1575), apothicaire du roi Louis XIII.
 </t>
         </is>
       </c>
